--- a/Reports/Files/Приёмная коммисия.xlsx
+++ b/Reports/Files/Приёмная коммисия.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Абитуриенты</t>
   </si>
@@ -68,25 +68,13 @@
     <t>Район</t>
   </si>
   <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иванович</t>
+    <t>re</t>
   </si>
   <si>
     <t>М</t>
   </si>
   <si>
-    <t>19.04.2005</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>01.01.0001</t>
+    <t>333</t>
   </si>
   <si>
     <t>Беларусь</t>
@@ -164,7 +152,7 @@
     <col min="3" max="3" width="12.878005027770996" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="14.858658790588379" customWidth="1" style="1"/>
-    <col min="6" max="6" width="10.5413236618042" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="16.083269119262695" customWidth="1" style="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.173484802246094" customWidth="1"/>
@@ -241,52 +229,52 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="1">
+        <v>38260</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
